--- a/notebook/validate_cdna_display_via_y_ligation/attach_mrna_to_flag/reproduce_reyes2021/reproduce_reyes2021_cond.xlsx
+++ b/notebook/validate_cdna_display_via_y_ligation/attach_mrna_to_flag/reproduce_reyes2021/reproduce_reyes2021_cond.xlsx
@@ -31,7 +31,7 @@
     <t xml:space="preserve">+</t>
   </si>
   <si>
-    <t xml:space="preserve">FLAG mRNA (f111,f112)</t>
+    <t xml:space="preserve">FLAG mRNA (f111,f127)</t>
   </si>
   <si>
     <t xml:space="preserve">linker (o236)</t>
@@ -146,10 +146,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topRight" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.94"/>
   </cols>
